--- a/Серия.xlsx
+++ b/Серия.xlsx
@@ -398,9 +398,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -410,6 +407,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,46 +715,46 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.140625" style="3" customWidth="1"/>
     <col min="3" max="22" width="3.140625" style="3" customWidth="1"/>
     <col min="23" max="23" width="9.140625" style="3" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -822,7 +822,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -850,32 +850,32 @@
       <c r="V3" s="6"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -906,32 +906,32 @@
       <c r="V5" s="8"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -962,32 +962,32 @@
       <c r="V7" s="8"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -1018,32 +1018,32 @@
       <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -1102,32 +1102,32 @@
       <c r="V12" s="6"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -1158,32 +1158,32 @@
       <c r="V14" s="8"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -1214,32 +1214,32 @@
       <c r="V16" s="8"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
@@ -1298,32 +1298,32 @@
       <c r="V19" s="6"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
@@ -1382,32 +1382,32 @@
       <c r="V22" s="6"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -1438,32 +1438,32 @@
       <c r="V24" s="8"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -1494,32 +1494,32 @@
       <c r="V26" s="6"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
@@ -1576,30 +1576,30 @@
       <c r="V29" s="13"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
